--- a/plantillas/faja.xlsx
+++ b/plantillas/faja.xlsx
@@ -16,9 +16,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
-    <t>area</t>
-  </si>
-  <si>
     <t>Id</t>
   </si>
   <si>
@@ -44,6 +41,9 @@
   </si>
   <si>
     <t>Insertar o Actualizar faja</t>
+  </si>
+  <si>
+    <t>faja</t>
   </si>
 </sst>
 </file>
@@ -489,52 +489,52 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>1</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5" s="4"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6" s="4"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7" s="4"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B9" s="9" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C9" s="9"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B10" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="6" t="s">
         <v>4</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">

--- a/plantillas/faja.xlsx
+++ b/plantillas/faja.xlsx
@@ -160,7 +160,6 @@
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -172,6 +171,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -493,193 +495,195 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="9" t="s">
         <v>8</v>
       </c>
+      <c r="C2" s="9"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="7" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="4"/>
+      <c r="C5" s="3"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="4"/>
+      <c r="C6" s="3"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="4"/>
+      <c r="C7" s="3"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="9"/>
+      <c r="C9" s="8"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="7">
+      <c r="A11" s="6">
         <v>1</v>
       </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="7">
+      <c r="A12" s="6">
         <v>2</v>
       </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="7">
+      <c r="A13" s="6">
         <v>3</v>
       </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="7">
+      <c r="A14" s="6">
         <v>4</v>
       </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="7">
+      <c r="A15" s="6">
         <v>5</v>
       </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="7">
+      <c r="A16" s="6">
         <v>6</v>
       </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="7">
+      <c r="A17" s="6">
         <v>7</v>
       </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="7">
+      <c r="A18" s="6">
         <v>8</v>
       </c>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="7">
+      <c r="A19" s="6">
         <v>9</v>
       </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="7">
+      <c r="A20" s="6">
         <v>10</v>
       </c>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="7">
+      <c r="A21" s="6">
         <v>11</v>
       </c>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="7">
+      <c r="A22" s="6">
         <v>12</v>
       </c>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="7">
+      <c r="A23" s="6">
         <v>13</v>
       </c>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="7">
+      <c r="A24" s="6">
         <v>14</v>
       </c>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="7">
+      <c r="A25" s="6">
         <v>15</v>
       </c>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="7">
+      <c r="A26" s="6">
         <v>16</v>
       </c>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="7">
+      <c r="A27" s="6">
         <v>17</v>
       </c>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="7">
+      <c r="A28" s="6">
         <v>18</v>
       </c>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="7">
+      <c r="A29" s="6">
         <v>19</v>
       </c>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="7">
+      <c r="A30" s="6">
         <v>20</v>
       </c>
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B2:C2"/>
   </mergeCells>
   <dataValidations count="3">
     <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5">
